--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2272302.61749909</v>
+        <v>2270415.035982688</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>142.6621898072149</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>15.09496956932372</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>129.6149220700259</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>126.7477612906601</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522512</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896933</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.682155124939</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>162.0285481174131</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>170.2913257848703</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>62.63869417193574</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>17.2985572568743</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>193.6575289561154</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.58458003433836</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>131.7925780239887</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>58.19095390327459</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>5.322702126626702</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965554</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801236</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897931</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571493</v>
+        <v>55.21598883571516</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523596</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>130.9173745754692</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463244</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113157</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>525.2409238118514</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>198.0462038478543</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4373,7 +4373,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2626.872957539298</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2626.872957539298</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2373.111172177389</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2373.111172177389</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.111172177389</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4753,19 +4753,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1490.470645930551</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1121.508128990139</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>763.2424303833884</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2267.209817970484</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>2267.209817970484</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1877.070485994672</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.885551920185</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628424</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628424</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>68.5727309569555</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395484</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.259996875531</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150553</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X13" t="n">
-        <v>726.825061417038</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028596</v>
       </c>
     </row>
     <row r="14">
@@ -5261,49 +5261,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>943.0172707642133</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429513</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>472.0965898562137</v>
+        <v>441.9005583181195</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5519,22 +5519,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>310.6051391271021</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>310.6051391271021</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147664</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147664</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147664</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147664</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>310.6051391271021</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.3990000507114</v>
+        <v>226.2249729967972</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>226.2249729967972</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609662</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W22" t="n">
-        <v>790.3885509487287</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X22" t="n">
-        <v>562.3990000507114</v>
+        <v>447.0175521403273</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.3990000507114</v>
+        <v>226.2249729967972</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>450.0103882072913</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>281.0742052793844</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>281.0742052793844</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>133.1611116969913</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>133.1611116969913</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387593</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>670.8029673508214</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>450.0103882072913</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6248,28 +6248,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>929.5163332765953</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.5850465240067</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>527.6488635960999</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>527.6488635960999</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102528</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609672</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609672</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W28" t="n">
-        <v>696.5850465240067</v>
+        <v>696.1158609141689</v>
       </c>
       <c r="X28" t="n">
-        <v>696.5850465240067</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y28" t="n">
-        <v>696.5850465240067</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646855</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.5190452905605</v>
+        <v>439.5324299542143</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440243</v>
+        <v>434.1559631596418</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440243</v>
+        <v>339.8001890286766</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>247.6479607276541</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>247.6479607276541</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276538</v>
+        <v>247.6479607276541</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933497</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962043</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1659.727145954544</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1426.359372449472</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1227.435749524956</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>993.7794447693664</v>
+        <v>902.6804289818899</v>
       </c>
       <c r="X31" t="n">
-        <v>821.5507591527198</v>
+        <v>730.451743365243</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.5190452905605</v>
+        <v>565.4200295030835</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506736</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083216</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504523</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210314</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982984</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254958</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155868</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805449</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823752</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514049</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795203</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845921</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7315,28 +7315,28 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
         <v>221.529509210313</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,7 +7670,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254958</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>18.73797368291257</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1350559470634</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226427</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.83804904622809</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>188.88569463024</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>272.8719470256798</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,22 +10191,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>85.30006332127806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>297.3877236703339</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>22.04402060665518</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720703</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272031</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237936</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167178</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.84084321165199</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>56.55610523468166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799425</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>116.2316725517207</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>86.27513419560039</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.3169157613381</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>92.86546938047559</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>130.9089884290392</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>14.64138462258046</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.4192454642719</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>163.3566071551146</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.7208623434443</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437443</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523574</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>35.42692985436295</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454838</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>875713.3023213622</v>
+        <v>875713.3023213621</v>
       </c>
     </row>
     <row r="12">
@@ -26317,43 +26317,43 @@
         <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327926</v>
       </c>
-      <c r="F2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>547440.6836327928</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327924</v>
-      </c>
       <c r="J2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833786</v>
+        <v>569550.9922833784</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049977</v>
       </c>
       <c r="M2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="O2" t="n">
         <v>574729.2389049979</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049979</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.6053028454</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086709</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284543</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687062</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106724</v>
+        <v>40339.23010106714</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819127</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819118</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002536</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>326237.2930550649</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.2930550646</v>
+        <v>326237.2930550648</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.2863796913</v>
+        <v>-91978.74550566328</v>
       </c>
       <c r="F6" t="n">
-        <v>433278.7500972054</v>
+        <v>433181.290971233</v>
       </c>
       <c r="G6" t="n">
-        <v>433278.7500972049</v>
+        <v>433181.2909712331</v>
       </c>
       <c r="H6" t="n">
-        <v>433278.7500972052</v>
+        <v>433181.2909712333</v>
       </c>
       <c r="I6" t="n">
-        <v>433278.7500972052</v>
+        <v>433181.2909712329</v>
       </c>
       <c r="J6" t="n">
-        <v>256855.530904612</v>
+        <v>256758.0717786397</v>
       </c>
       <c r="K6" t="n">
-        <v>388420.948349243</v>
+        <v>388402.4546113088</v>
       </c>
       <c r="L6" t="n">
-        <v>422077.8314559145</v>
+        <v>422077.8314559141</v>
       </c>
       <c r="M6" t="n">
         <v>297619.7230229448</v>
       </c>
       <c r="N6" t="n">
-        <v>432420.7382567821</v>
+        <v>432420.7382567816</v>
       </c>
       <c r="O6" t="n">
         <v>432420.7382567814</v>
       </c>
       <c r="P6" t="n">
-        <v>388258.1329539354</v>
+        <v>388258.1329539359</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,10 +26793,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108387</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855679</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855676</v>
       </c>
     </row>
     <row r="3">
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.269126437646349</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>159.3207432396478</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>252.3154480022359</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>242.983339387809</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913659</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29287,13 +29287,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.108000729802126e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>106.7510064679868</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>397.3927609030879</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>702.5357390731091</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022525</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>395.9791095617647</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>522.1296519817042</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>12.5077701655656</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>334.5577682773024</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>630.5822970683469</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412236</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043159</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>304.4077228477634</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
@@ -37242,10 +37242,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415045</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>618.2977090519455</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>484.8867074649018</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>257.299348501792</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
